--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3546101.960858727</v>
+        <v>3543725.33391136</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>18.88613951288977</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>39.45655134471433</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>113.7922964278906</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551289</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>276.658105623364</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>77.58215494783474</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,10 +953,10 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>15.6979793877888</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>117.6952715186309</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>23.73664243899209</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>132.9066208399094</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>272.1752399778209</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>24.55276019063721</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>110.6362210220204</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1376,10 +1376,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722635</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5981994227933</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1613,13 +1613,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.930370072263</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428209</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>178.2642147042095</v>
       </c>
     </row>
     <row r="23">
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>104.8913819999782</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>60.78102717027877</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,16 +3433,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>126.9263824507421</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428257</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695761</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3800,13 +3800,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560511</v>
       </c>
     </row>
     <row r="42">
@@ -3904,19 +3904,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,19 +3943,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>160.1763464053468</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>127.6065435523128</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>134.3852063573442</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>161.355549430153</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>474.7217947496364</v>
+        <v>844.329830759459</v>
       </c>
       <c r="C2" t="n">
-        <v>474.7217947496364</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>474.7217947496364</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>88.9335421513922</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>81.98804140218873</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>70.32369516688166</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>70.32369516688166</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1977.695380320764</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1624.92672505065</v>
+        <v>1604.395429084661</v>
       </c>
       <c r="X2" t="n">
-        <v>1251.46096678957</v>
+        <v>1230.929670823581</v>
       </c>
       <c r="Y2" t="n">
-        <v>861.3216348137582</v>
+        <v>1230.929670823581</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O3" t="n">
-        <v>1860.224488783101</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>812.8918298888576</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="C4" t="n">
-        <v>812.8918298888576</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="D4" t="n">
-        <v>662.7751904765219</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E4" t="n">
-        <v>514.8620968941287</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F4" t="n">
-        <v>367.9721493962184</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G4" t="n">
         <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1356.993488131705</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V4" t="n">
-        <v>1102.308999925818</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="W4" t="n">
-        <v>812.8918298888576</v>
+        <v>535.7199774115529</v>
       </c>
       <c r="X4" t="n">
-        <v>812.8918298888576</v>
+        <v>535.7199774115529</v>
       </c>
       <c r="Y4" t="n">
-        <v>812.8918298888576</v>
+        <v>314.9273982680228</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.2769458819311</v>
+        <v>809.2519436594666</v>
       </c>
       <c r="C5" t="n">
-        <v>141.2769458819311</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="D5" t="n">
-        <v>141.2769458819311</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="E5" t="n">
-        <v>141.2769458819311</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816075</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
         <v>795.7553530872915</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.313418796629</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V5" t="n">
-        <v>1644.250531453059</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W5" t="n">
-        <v>1291.481876182944</v>
+        <v>1959.45687396048</v>
       </c>
       <c r="X5" t="n">
-        <v>918.0161179218646</v>
+        <v>1585.9911156994</v>
       </c>
       <c r="Y5" t="n">
-        <v>527.8767859460529</v>
+        <v>1195.851783723588</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143495</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L6" t="n">
-        <v>884.9085321458213</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701987</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>783.0370443974455</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C7" t="n">
-        <v>783.0370443974455</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D7" t="n">
-        <v>632.9204049851097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E7" t="n">
-        <v>485.0073114027166</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>338.1173639048062</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>170.1308992130848</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1509.886307086047</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269233</v>
+        <v>1286.907826280783</v>
       </c>
       <c r="U7" t="n">
-        <v>1413.467639269233</v>
+        <v>997.7894887846204</v>
       </c>
       <c r="V7" t="n">
-        <v>1413.467639269233</v>
+        <v>743.1050005787336</v>
       </c>
       <c r="W7" t="n">
-        <v>1413.467639269233</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="X7" t="n">
-        <v>1185.478088371215</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y7" t="n">
-        <v>964.6855092276852</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.907945722348</v>
+        <v>639.4419116165413</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.945428781937</v>
+        <v>270.4793946761296</v>
       </c>
       <c r="D8" t="n">
-        <v>1122.945428781937</v>
+        <v>270.4793946761296</v>
       </c>
       <c r="E8" t="n">
-        <v>737.1571761836924</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F8" t="n">
-        <v>326.1712713940848</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
@@ -4832,22 +4832,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056584</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.50778578647</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="X8" t="n">
-        <v>1878.50778578647</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.50778578647</v>
+        <v>1026.041751680663</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380226</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1614.486495938516</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>689.9034178578797</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C10" t="n">
-        <v>520.9672349299728</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D10" t="n">
-        <v>370.8505955176371</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E10" t="n">
-        <v>222.937501935244</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>76.04755443733362</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1225.480207141839</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>936.3618696456771</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.76163186861</v>
+        <v>681.6773814397902</v>
       </c>
       <c r="W10" t="n">
-        <v>1092.34446183165</v>
+        <v>681.6773814397902</v>
       </c>
       <c r="X10" t="n">
-        <v>1092.34446183165</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y10" t="n">
-        <v>871.5518826881195</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468472</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O12" t="n">
-        <v>2222.001901828445</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
         <v>2283.159972732779</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>802.9288273958739</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C13" t="n">
-        <v>633.992644467967</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D13" t="n">
-        <v>483.8760050556313</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>483.8760050556313</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>483.8760050556313</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.5772922261136</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797191</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703784</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
@@ -5501,22 +5501,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5540,25 +5540,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5653,22 +5653,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,22 +5829,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2387.388512467612</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6124,19 +6124,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6215,10 +6215,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6449,40 +6449,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6661,10 +6661,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6895,13 +6895,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7072,25 +7072,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>366.9636532421608</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516145</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121652</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121652</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121652</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121652</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270452</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,58 +7400,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273912</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803939</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516146</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167374</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793926</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348533</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>639.6425904082686</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797193</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1559.490355317016</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1270.073185280056</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1042.083634382038</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>821.2910552385083</v>
       </c>
     </row>
     <row r="44">
@@ -7637,31 +7637,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192603</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8070,16 +8070,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>186.449012614385</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>193.3273467878356</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>168.7434581780641</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,7 +8307,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>54.95314511566545</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878349</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>255.8421700460948</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>20.9377812015499</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>-3.108647567905683e-13</v>
+        <v>-4.831690603168681e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>38.1389282762425</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0.925938869475516</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>36.41624546988362</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>63.36835372228749</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>40.32043864788525</v>
       </c>
     </row>
     <row r="23">
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>41.54258064659096</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>31.13893193492463</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>106.4657939283491</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>138.4949402405078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>138.4949402405078</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>35.40333084624567</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>19.5075801958271</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194129</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,13 +25837,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>57.22910392194146</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>124.5310997715152</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>45.44677382459307</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>672605.3283593906</v>
+        <v>672605.3283593905</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>672605.3283593905</v>
+        <v>672605.3283593906</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>672605.3283593905</v>
+        <v>672605.3283593906</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>672605.3283593906</v>
+        <v>672605.3283593905</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>672605.3283593906</v>
+        <v>672605.3283593905</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>672605.3283593906</v>
+        <v>672605.3283593905</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="C2" t="n">
         <v>759463.6371244625</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132557</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="F2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="G2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="I2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="J2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="K2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="L2" t="n">
         <v>746610.6047132554</v>
       </c>
-      <c r="H2" t="n">
+      <c r="M2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="N2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="I2" t="n">
-        <v>746610.6047132555</v>
-      </c>
-      <c r="J2" t="n">
-        <v>746610.6047132555</v>
-      </c>
-      <c r="K2" t="n">
-        <v>746610.6047132555</v>
-      </c>
-      <c r="L2" t="n">
-        <v>746610.6047132555</v>
-      </c>
-      <c r="M2" t="n">
-        <v>746610.6047132555</v>
-      </c>
-      <c r="N2" t="n">
-        <v>746610.6047132557</v>
-      </c>
       <c r="O2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132554</v>
       </c>
     </row>
     <row r="3">
@@ -26372,16 +26372,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245461</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
-        <v>5.148837678054155e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
-        <v>3.139184627798386e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>7.723256517081232e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>133113.8635467444</v>
+      </c>
+      <c r="C4" t="n">
         <v>133113.8635467443</v>
       </c>
-      <c r="C4" t="n">
-        <v>133113.8635467444</v>
-      </c>
       <c r="D4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719585</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719613</v>
+        <v>7507.36846171969</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719721</v>
+        <v>7507.36846171969</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719691</v>
+        <v>7507.36846171969</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719677</v>
       </c>
       <c r="J4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171967</v>
       </c>
       <c r="L4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.36846171968</v>
+        <v>7507.368461719732</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719634</v>
+        <v>7507.368461719721</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719559</v>
+        <v>7507.368461719791</v>
       </c>
       <c r="P4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719668</v>
       </c>
     </row>
     <row r="5">
@@ -26506,7 +26506,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-581339.7824380459</v>
+        <v>-581339.7824380461</v>
       </c>
       <c r="C6" t="n">
-        <v>533412.0011378734</v>
+        <v>533412.0011378735</v>
       </c>
       <c r="D6" t="n">
-        <v>533412.0011378733</v>
+        <v>533412.0011378735</v>
       </c>
       <c r="E6" t="n">
-        <v>130495.2648030828</v>
+        <v>130460.5268776469</v>
       </c>
       <c r="F6" t="n">
-        <v>637980.7064276285</v>
+        <v>637945.9685021928</v>
       </c>
       <c r="G6" t="n">
-        <v>637980.7064276289</v>
+        <v>637945.9685021929</v>
       </c>
       <c r="H6" t="n">
-        <v>637980.7064276285</v>
+        <v>637945.9685021926</v>
       </c>
       <c r="I6" t="n">
-        <v>637980.7064276288</v>
+        <v>637945.9685021928</v>
       </c>
       <c r="J6" t="n">
-        <v>470375.5286176463</v>
+        <v>470340.79069221</v>
       </c>
       <c r="K6" t="n">
-        <v>637980.7064276288</v>
+        <v>637945.9685021929</v>
       </c>
       <c r="L6" t="n">
-        <v>637980.7064276288</v>
+        <v>637945.968502193</v>
       </c>
       <c r="M6" t="n">
-        <v>505373.4126987019</v>
+        <v>505338.6747732661</v>
       </c>
       <c r="N6" t="n">
-        <v>637980.7064276286</v>
+        <v>637945.9685021929</v>
       </c>
       <c r="O6" t="n">
-        <v>637980.7064276288</v>
+        <v>637945.9685021925</v>
       </c>
       <c r="P6" t="n">
-        <v>637980.7064276284</v>
+        <v>637945.968502193</v>
       </c>
     </row>
   </sheetData>
@@ -26722,10 +26722,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26826,10 +26826,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241348</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996101</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996101</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996101</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>46.82377315958072</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>309.7844173726987</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>66.03968375404669</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>9.569048497836661</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>329.2938907938767</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,10 +27673,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>333.5429893296242</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27777,19 +27777,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>29.55623763649797</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>170.9258179227454</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>249.0237492323524</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>139.3724627951331</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>141.753839854167</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>110.1124749751916</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28333,13 +28333,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,10 +28576,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>-4.688052295361615e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30520,13 +30520,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>2.508117851338566e-12</v>
       </c>
     </row>
     <row r="42">
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>483.3274636075166</v>
       </c>
       <c r="P12" t="n">
-        <v>195.7502366106279</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>258.3858318060507</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338201</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,19 +32309,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>322.7581251332984</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,13 +32330,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>173.3851399586643</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,31 +32786,31 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>307.3280120589134</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,10 +33260,10 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>691.6611968462892</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33661,7 +33661,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162557</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33743,7 +33743,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>269.1634560719508</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,10 +33752,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>705.9257335045849</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558009</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862124</v>
+        <v>173.3851399586646</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558004</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>227.8611086463993</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
@@ -34790,16 +34790,16 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>521.873694610508</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634694</v>
+        <v>443.0068759113678</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
-        <v>355.3309544215489</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
@@ -35027,7 +35027,7 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>390.3778271117885</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
@@ -35036,7 +35036,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313197</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>591.2668520422178</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,16 +35483,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,16 +35501,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>340.7312191630721</v>
       </c>
       <c r="P12" t="n">
-        <v>61.77582919629761</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394595</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,19 +35957,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394658</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,13 +35978,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>31.25110603664601</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>167.3462379728918</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>560.3194847629559</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462684</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37391,7 +37391,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>127.0294221499325</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,10 +37400,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>574.5840214212516</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113564</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.412613764194</v>
+        <v>31.25110603664623</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.165419911356</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317824</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>90.01966967204032</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
